--- a/Instructions/Part_List.xlsx
+++ b/Instructions/Part_List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cowen\Documents\GitHub\String_Pulling_System\Instructions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC668E6-6AA0-4FCA-AD62-917FA5D6DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,236 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+  <si>
+    <t>Table 1 - Parts List</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Allied vision</t>
+  </si>
+  <si>
+    <t>LED Panel</t>
+  </si>
+  <si>
+    <t>Viltrox</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/VILTROX-L116T-3300K-5600K-Temperature-Brightness/dp/B07D8TTFSR/ref=sr_1_3?dchild=1&amp;keywords=viltrox+led&amp;qid=1620409459&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>UBeeSize</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/10-Extendable-UBeesize-Ringlight-Compatible/dp/B07QFV72LK/ref=sr_1_3?dchild=1&amp;keywords=ubeesize+ring+light&amp;qid=1620409432&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>https://store.arduino.cc/usa/mega-2560-r3</t>
+  </si>
+  <si>
+    <t>Rotary Encoder</t>
+  </si>
+  <si>
+    <t>BQLZR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B00UTIFCVA/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>STC Valve</t>
+  </si>
+  <si>
+    <t>https://www.stcvalve.com/Solenoid-Valve-Specifications-2P025-Series.htm</t>
+  </si>
+  <si>
+    <t>LANIAKEA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08NXGV1YH/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Zyltech</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07F6R2Z99/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Intan Technologies</t>
+  </si>
+  <si>
+    <t>https://intantech.com/RHD_USB_interface_board.html</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Extruded Aluminum (20/20)</t>
+  </si>
+  <si>
+    <t>Neural Data Acquisition Systems</t>
+  </si>
+  <si>
+    <t>https://www.alliedvision.com/en/products/alvium-configurator/alvium-1800-u/040-1/#_configurator</t>
+  </si>
+  <si>
+    <t>Alvium 1800 U-040 (option 2)</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Physical Apparatus</t>
+  </si>
+  <si>
+    <t>Ace Hardware</t>
+  </si>
+  <si>
+    <t>https://www.acehardware.com/departments/hardware/chain-and-rope/ropes/7373707</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B09SSWZG82?ref=ppx_yo2ov_dt_b_product_details&amp;th=1</t>
+  </si>
+  <si>
+    <t>SeekLiny</t>
+  </si>
+  <si>
+    <t>Cotton Twine #16 [CHECK]</t>
+  </si>
+  <si>
+    <t>3D printer wheel with bearings</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07FPLZXTF/ref=ppx_yo_dt_b_search_asin_image?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Sutemribor</t>
+  </si>
+  <si>
+    <t>T-slot nuts</t>
+  </si>
+  <si>
+    <t>Panel Mount Aviation Connectors</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07F5B5LLX/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Hilitchi </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08NGGMKC3/ref=ppx_yo_dt_b_search_asin_image?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Zulkit</t>
+  </si>
+  <si>
+    <t>The above list does not include connonly available parts such as nuts and bolts, wire/cable, header connectors, standoffs, etc…</t>
+  </si>
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>https://cdn.alliedvision.com/fileadmin/pdf/en/Mako_U-130_DataSheet_en.pdf</t>
+  </si>
+  <si>
+    <t>Mako U-130b</t>
+  </si>
+  <si>
+    <t>Mako U-130b Camera* (option1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvium 1800 U-040 </t>
+  </si>
+  <si>
+    <t>L116T</t>
+  </si>
+  <si>
+    <t>Ring Light, 10"</t>
+  </si>
+  <si>
+    <t>Mega 2560 Rev3</t>
+  </si>
+  <si>
+    <t>https://store-usa.arduino.cc/collections/boards/products/arduino-uno-rev3</t>
+  </si>
+  <si>
+    <t>Arduino Uno Rev3</t>
+  </si>
+  <si>
+    <t>UBeeSize Ring Light</t>
+  </si>
+  <si>
+    <t>BQLZR 600P/R</t>
+  </si>
+  <si>
+    <t>2P025-1/4</t>
+  </si>
+  <si>
+    <t>Solenoid Valve 1/4"</t>
+  </si>
+  <si>
+    <t>Project Box 12.2 x 11.2 x 4.5"</t>
+  </si>
+  <si>
+    <t>CowenLab/String_Pulling_System (github.com)</t>
+  </si>
+  <si>
+    <t>Pololu</t>
+  </si>
+  <si>
+    <t>Digital Distance Sensor 5cm</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/4050</t>
+  </si>
+  <si>
+    <t>C8016B0008AC</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>EXT-2020-REG-1000-10X</t>
+  </si>
+  <si>
+    <t>STBR-T-luomu-160P-kit</t>
+  </si>
+  <si>
+    <t>90° Corner Bracket</t>
+  </si>
+  <si>
+    <t>https://intantech.com/recording_controller.html</t>
+  </si>
+  <si>
+    <t>Intan USB Interface Board (option 1)*</t>
+  </si>
+  <si>
+    <t>RHD Recording Controller (option 2)</t>
+  </si>
+  <si>
+    <t>*Specific Model Discontinued. In these cases, an updated part is provided as a second option.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +261,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,14 +344,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +727,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4050</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15">
+        <v>8541770567</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{ACCA5EF8-F098-43EB-92B3-BD4387E80A89}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{9A652780-55E2-41B1-BFF5-8D924E0432C3}"/>
+    <hyperlink ref="D5" r:id="rId3" location="_configurator" xr:uid="{1DA832EB-BDC9-42A2-8770-3B2231A15949}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{9CB6F31C-7FAB-480C-A1F3-3A49615C11A0}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{E7CC48EA-013A-40B8-8741-FF332BDDA3C5}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{F96A6E14-6E65-4080-86B4-405E44BA537F}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{1832A18A-0AD4-4024-8B66-A12ABA56068A}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{3D4948BF-17EC-4D86-A0DF-CFFDF734E1F4}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{662FB4EF-09D5-4968-9EE9-BC0D6844D799}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{AE261D68-3E94-4FDB-8240-6ED7AE255D81}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{FCD31717-4868-4DC3-9238-17C0EDBCB6D9}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{57A218DC-2999-429A-B833-49A27FBE7B69}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{8E585369-750A-4640-AC16-30DA112440B3}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{B1678708-15D4-4807-BFAC-378F949A0005}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{D4CB4715-E6F9-4EBC-9611-097C401FC646}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{276E00E3-8A4F-4C1F-833D-2BCA99F7D6C9}"/>
+    <hyperlink ref="A27" r:id="rId17" display="https://github.com/CowenLab/String_Pulling_System" xr:uid="{20C947C8-25E7-4B80-AFF7-AA12F85D2A91}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{AAD2C9B0-9E05-4F12-8005-E9AB0EA8143A}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{73826FD4-6B94-4093-B07D-F6E5DD1034B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>